--- a/query4.xlsx
+++ b/query4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,39 @@
         <v>34</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="n">
+        <v>139</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="n">
+        <v>140</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="n">
+        <v>121</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
